--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/L1cam-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/L1cam-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H2">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>476.7370292407964</v>
+        <v>29.10423056903</v>
       </c>
       <c r="R2">
-        <v>4290.633263167168</v>
+        <v>261.9380751212699</v>
       </c>
       <c r="S2">
-        <v>0.2157301877206711</v>
+        <v>0.03371228835620888</v>
       </c>
       <c r="T2">
-        <v>0.2157301877206711</v>
+        <v>0.03371228835620887</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H3">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I3">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J3">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>809.3358002273127</v>
+        <v>277.279305741359</v>
       </c>
       <c r="R3">
-        <v>7284.022202045815</v>
+        <v>2495.513751672231</v>
       </c>
       <c r="S3">
-        <v>0.3662357933264493</v>
+        <v>0.321180794942886</v>
       </c>
       <c r="T3">
-        <v>0.3662357933264494</v>
+        <v>0.321180794942886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H4">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I4">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J4">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>348.1350161725422</v>
+        <v>119.27142671987</v>
       </c>
       <c r="R4">
-        <v>3133.215145552879</v>
+        <v>1073.44284047883</v>
       </c>
       <c r="S4">
-        <v>0.157535974309869</v>
+        <v>0.1381556100821773</v>
       </c>
       <c r="T4">
-        <v>0.1575359743098691</v>
+        <v>0.1381556100821773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I5">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J5">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>6.426831237678223</v>
+        <v>1.145210775684445</v>
       </c>
       <c r="R5">
-        <v>57.841481139104</v>
+        <v>10.30689698116</v>
       </c>
       <c r="S5">
-        <v>0.002908231214095821</v>
+        <v>0.001326531406042196</v>
       </c>
       <c r="T5">
-        <v>0.002908231214095821</v>
+        <v>0.001326531406042196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I6">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J6">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>10.91055295401645</v>
@@ -818,10 +818,10 @@
         <v>98.19497658614802</v>
       </c>
       <c r="S6">
-        <v>0.004937178134986942</v>
+        <v>0.01263801516549585</v>
       </c>
       <c r="T6">
-        <v>0.004937178134986943</v>
+        <v>0.01263801516549585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I7">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J7">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>4.693163861071111</v>
@@ -880,10 +880,10 @@
         <v>42.23847474964</v>
       </c>
       <c r="S7">
-        <v>0.002123722426942749</v>
+        <v>0.005436230070130354</v>
       </c>
       <c r="T7">
-        <v>0.00212372242694275</v>
+        <v>0.005436230070130353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H8">
         <v>22.964118</v>
       </c>
       <c r="I8">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J8">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>161.5092547003147</v>
+        <v>28.77967882075334</v>
       </c>
       <c r="R8">
-        <v>1453.583292302832</v>
+        <v>259.01710938678</v>
       </c>
       <c r="S8">
-        <v>0.07308520148017685</v>
+        <v>0.03333635049733082</v>
       </c>
       <c r="T8">
-        <v>0.07308520148017686</v>
+        <v>0.03333635049733081</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H9">
         <v>22.964118</v>
       </c>
       <c r="I9">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J9">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
-        <v>274.1872644236593</v>
+        <v>274.1872644236594</v>
       </c>
       <c r="R9">
-        <v>2467.685379812934</v>
+        <v>2467.685379812935</v>
       </c>
       <c r="S9">
-        <v>0.1240735801851399</v>
+        <v>0.3175991923210829</v>
       </c>
       <c r="T9">
-        <v>0.1240735801851399</v>
+        <v>0.3175991923210829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H10">
         <v>22.964118</v>
       </c>
       <c r="I10">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J10">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
         <v>117.9413881205133</v>
@@ -1066,10 +1066,10 @@
         <v>1061.47249308462</v>
       </c>
       <c r="S10">
-        <v>0.05337013120166827</v>
+        <v>0.1366149871586456</v>
       </c>
       <c r="T10">
-        <v>0.05337013120166828</v>
+        <v>0.1366149871586456</v>
       </c>
     </row>
   </sheetData>
